--- a/LEDs-0805.xlsx
+++ b/LEDs-0805.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="25120" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LEDs-0805.csv" sheetId="1" r:id="rId1"/>
